--- a/tc/tc_iot_4/表架拓扑图.xlsx
+++ b/tc/tc_iot_4/表架拓扑图.xlsx
@@ -12,11 +12,12 @@
     <sheet name="线形网络" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="84">
   <si>
     <t>表架1(左侧)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,6 +348,10 @@
   </si>
   <si>
     <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙色：电表有事件上报，断电再上电，必然会上报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,7 +362,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,6 +405,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -628,7 +640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -737,9 +749,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -751,6 +760,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -762,9 +789,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1060,7 +1084,7 @@
   <dimension ref="C6:AB19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1118,37 +1142,37 @@
       <c r="C9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="39" t="s">
         <v>76</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="39" t="s">
         <v>78</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="40" t="s">
+      <c r="L9" s="39" t="s">
         <v>78</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="N9" s="40" t="s">
+      <c r="N9" s="39" t="s">
         <v>78</v>
       </c>
       <c r="O9" s="1"/>
@@ -1156,37 +1180,37 @@
       <c r="Q9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="R9" s="40" t="s">
+      <c r="R9" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="S9" s="19" t="s">
+      <c r="S9" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="T9" s="40" t="s">
+      <c r="T9" s="39" t="s">
         <v>79</v>
       </c>
       <c r="U9" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="40" t="s">
+      <c r="V9" s="39" t="s">
         <v>79</v>
       </c>
       <c r="W9" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="X9" s="40" t="s">
+      <c r="X9" s="39" t="s">
         <v>79</v>
       </c>
       <c r="Y9" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="Z9" s="40" t="s">
+      <c r="Z9" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="AA9" s="38" t="s">
+      <c r="AA9" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="AB9" s="40" t="s">
+      <c r="AB9" s="39" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1194,75 +1218,75 @@
       <c r="C10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="40" t="s">
         <v>77</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="40" t="s">
         <v>79</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="40" t="s">
         <v>79</v>
       </c>
       <c r="I10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="41" t="s">
+      <c r="J10" s="40" t="s">
         <v>79</v>
       </c>
       <c r="K10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="41" t="s">
+      <c r="L10" s="40" t="s">
         <v>79</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="41" t="s">
+      <c r="N10" s="40" t="s">
         <v>79</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="R10" s="41" t="s">
+      <c r="R10" s="40" t="s">
         <v>78</v>
       </c>
       <c r="S10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="T10" s="41" t="s">
+      <c r="T10" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="V10" s="41" t="s">
+      <c r="V10" s="40" t="s">
         <v>78</v>
       </c>
       <c r="W10" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="X10" s="41" t="s">
+      <c r="X10" s="40" t="s">
         <v>78</v>
       </c>
       <c r="Y10" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Z10" s="41" t="s">
+      <c r="Z10" s="40" t="s">
         <v>78</v>
       </c>
       <c r="AA10" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="AB10" s="41" t="s">
+      <c r="AB10" s="40" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1270,37 +1294,37 @@
       <c r="C11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="40" t="s">
         <v>76</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="40" t="s">
         <v>78</v>
       </c>
       <c r="G11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="40" t="s">
         <v>78</v>
       </c>
       <c r="I11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="41" t="s">
+      <c r="J11" s="40" t="s">
         <v>78</v>
       </c>
       <c r="K11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="41" t="s">
+      <c r="L11" s="40" t="s">
         <v>78</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="41" t="s">
+      <c r="N11" s="40" t="s">
         <v>78</v>
       </c>
       <c r="O11" s="1"/>
@@ -1308,37 +1332,37 @@
       <c r="Q11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="R11" s="41" t="s">
+      <c r="R11" s="40" t="s">
         <v>82</v>
       </c>
       <c r="S11" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="T11" s="41" t="s">
+      <c r="T11" s="40" t="s">
         <v>82</v>
       </c>
       <c r="U11" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="V11" s="41" t="s">
+      <c r="V11" s="40" t="s">
         <v>82</v>
       </c>
       <c r="W11" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="X11" s="41" t="s">
+      <c r="X11" s="40" t="s">
         <v>82</v>
       </c>
       <c r="Y11" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="Z11" s="41" t="s">
+      <c r="Z11" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="AA11" s="36" t="s">
+      <c r="AA11" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="AB11" s="41" t="s">
+      <c r="AB11" s="40" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1346,37 +1370,37 @@
       <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="40" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="40" t="s">
         <v>80</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="40" t="s">
         <v>80</v>
       </c>
       <c r="I12" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="41" t="s">
+      <c r="J12" s="40" t="s">
         <v>80</v>
       </c>
       <c r="K12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="41" t="s">
+      <c r="L12" s="40" t="s">
         <v>80</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="41" t="s">
+      <c r="N12" s="40" t="s">
         <v>80</v>
       </c>
       <c r="O12" s="1"/>
@@ -1384,37 +1408,37 @@
       <c r="Q12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="R12" s="41" t="s">
+      <c r="R12" s="40" t="s">
         <v>80</v>
       </c>
       <c r="S12" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="T12" s="41" t="s">
+      <c r="T12" s="40" t="s">
         <v>80</v>
       </c>
       <c r="U12" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="V12" s="41" t="s">
+      <c r="V12" s="40" t="s">
         <v>80</v>
       </c>
       <c r="W12" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="X12" s="41" t="s">
+      <c r="X12" s="40" t="s">
         <v>80</v>
       </c>
       <c r="Y12" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="Z12" s="41" t="s">
+      <c r="Z12" s="40" t="s">
         <v>80</v>
       </c>
       <c r="AA12" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="AB12" s="41" t="s">
+      <c r="AB12" s="40" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1422,80 +1446,80 @@
       <c r="C13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="41" t="s">
         <v>68</v>
       </c>
       <c r="E13" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="41" t="s">
         <v>81</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="41" t="s">
         <v>81</v>
       </c>
       <c r="I13" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="42" t="s">
+      <c r="J13" s="41" t="s">
         <v>81</v>
       </c>
       <c r="K13" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="42" t="s">
+      <c r="L13" s="41" t="s">
         <v>81</v>
       </c>
       <c r="M13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="42" t="s">
+      <c r="N13" s="41" t="s">
         <v>81</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="43" t="s">
+      <c r="Q13" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="R13" s="42" t="s">
+      <c r="R13" s="41" t="s">
         <v>81</v>
       </c>
       <c r="S13" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="T13" s="42" t="s">
+      <c r="T13" s="41" t="s">
         <v>81</v>
       </c>
       <c r="U13" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V13" s="42" t="s">
+      <c r="V13" s="41" t="s">
         <v>81</v>
       </c>
       <c r="W13" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="X13" s="42" t="s">
+      <c r="X13" s="41" t="s">
         <v>81</v>
       </c>
       <c r="Y13" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="Z13" s="42" t="s">
+      <c r="Z13" s="41" t="s">
         <v>81</v>
       </c>
       <c r="AA13" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="AB13" s="42" t="s">
+      <c r="AB13" s="41" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="14" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="D14" s="39">
+      <c r="D14" s="38">
         <f>SUM(D9:D13)</f>
         <v>0</v>
       </c>
@@ -1586,6 +1610,9 @@
       <c r="AB18"/>
     </row>
     <row r="19" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
       <c r="R19"/>
       <c r="T19"/>
       <c r="V19"/>

--- a/tc/tc_iot_4/表架拓扑图.xlsx
+++ b/tc/tc_iot_4/表架拓扑图.xlsx
@@ -12,12 +12,11 @@
     <sheet name="线形网络" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="135">
   <si>
     <t>表架1(左侧)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -323,35 +322,239 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>橙色：电表有事件上报，断电再上电，必然会上报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表架1(左1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表架2（左二）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表架3(左三)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表架4（左四）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>052</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>059</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗体：地址开头1809130000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>055</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>054</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>087</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>084</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>099</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>089</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>097</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>096</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>095</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>094</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>093</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>092</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>019</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -362,7 +565,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,6 +615,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -439,7 +659,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -636,11 +856,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -743,12 +974,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -762,22 +987,91 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1081,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:AB19"/>
+  <dimension ref="C6:AB28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1118,10 +1412,10 @@
     </row>
     <row r="7" spans="3:28" x14ac:dyDescent="0.15">
       <c r="G7" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="3:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1139,493 +1433,1031 @@
       <c r="AB8" s="2"/>
     </row>
     <row r="9" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="37">
+        <v>4</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="37">
+        <v>4</v>
+      </c>
+      <c r="G9" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="37">
+        <v>4</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="37">
+        <v>4</v>
+      </c>
+      <c r="K9" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="37">
+        <v>4</v>
+      </c>
+      <c r="M9" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="37">
+        <v>4</v>
+      </c>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="42">
+        <v>4</v>
+      </c>
+      <c r="S9" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="T9" s="42">
+        <v>4</v>
+      </c>
+      <c r="U9" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="V9" s="42">
+        <v>4</v>
+      </c>
+      <c r="W9" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="X9" s="42">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z9" s="42">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB9" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C10" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="38">
+        <v>5</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="38">
+        <v>5</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="38">
+        <v>5</v>
+      </c>
+      <c r="I10" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="38">
+        <v>5</v>
+      </c>
+      <c r="K10" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="38">
+        <v>5</v>
+      </c>
+      <c r="M10" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="38">
+        <v>5</v>
+      </c>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" s="43">
+        <v>5</v>
+      </c>
+      <c r="S10" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="43">
+        <v>5</v>
+      </c>
+      <c r="U10" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="V10" s="43">
+        <v>5</v>
+      </c>
+      <c r="W10" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="X10" s="43">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z10" s="43">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB10" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C11" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="38">
+        <v>4</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="38">
+        <v>4</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="38">
+        <v>4</v>
+      </c>
+      <c r="I11" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="38">
+        <v>4</v>
+      </c>
+      <c r="K11" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="38">
+        <v>4</v>
+      </c>
+      <c r="M11" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="38">
+        <v>4</v>
+      </c>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="R11" s="43">
+        <v>4</v>
+      </c>
+      <c r="S11" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="T11" s="43">
+        <v>4</v>
+      </c>
+      <c r="U11" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="V11" s="43">
+        <v>4</v>
+      </c>
+      <c r="W11" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="X11" s="43">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z11" s="43">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB11" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C12" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="38">
+        <v>2</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="38">
+        <v>2</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="38">
+        <v>2</v>
+      </c>
+      <c r="I12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="38">
+        <v>2</v>
+      </c>
+      <c r="K12" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="38">
+        <v>2</v>
+      </c>
+      <c r="M12" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="38">
+        <v>2</v>
+      </c>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="R12" s="43">
+        <v>2</v>
+      </c>
+      <c r="S12" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="T12" s="43">
+        <v>2</v>
+      </c>
+      <c r="U12" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="V12" s="43">
+        <v>2</v>
+      </c>
+      <c r="W12" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="X12" s="43">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z12" s="43">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB12" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="39">
+        <v>1</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="39">
+        <v>1</v>
+      </c>
+      <c r="G13" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="39">
+        <v>1</v>
+      </c>
+      <c r="I13" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="39">
+        <v>1</v>
+      </c>
+      <c r="K13" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="39">
+        <v>1</v>
+      </c>
+      <c r="M13" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="39">
+        <v>1</v>
+      </c>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="R13" s="44">
+        <v>1</v>
+      </c>
+      <c r="S13" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="T13" s="44">
+        <v>1</v>
+      </c>
+      <c r="U13" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="V13" s="44">
+        <v>1</v>
+      </c>
+      <c r="W13" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="X13" s="44">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z13" s="44">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB13" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C14" s="48">
+        <v>0</v>
+      </c>
+      <c r="D14" s="45">
+        <f>SUM(D9:D13)</f>
+        <v>16</v>
+      </c>
+      <c r="E14" s="48">
+        <v>0</v>
+      </c>
+      <c r="F14" s="48">
+        <f>SUM(F9:F13)</f>
+        <v>16</v>
+      </c>
+      <c r="G14" s="48">
+        <v>0</v>
+      </c>
+      <c r="H14" s="48">
+        <f>SUM(H9:H13)</f>
+        <v>16</v>
+      </c>
+      <c r="I14" s="48">
+        <v>0</v>
+      </c>
+      <c r="J14" s="48">
+        <f>SUM(J9:J13)</f>
+        <v>16</v>
+      </c>
+      <c r="K14" s="48">
+        <v>0</v>
+      </c>
+      <c r="L14" s="48">
+        <f>SUM(L9:L13)</f>
+        <v>16</v>
+      </c>
+      <c r="M14" s="48">
+        <v>0</v>
+      </c>
+      <c r="N14" s="48">
+        <f>SUM(N9:N13)</f>
+        <v>16</v>
+      </c>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48">
+        <v>0</v>
+      </c>
+      <c r="R14" s="48">
+        <f>SUM(R9:R13)</f>
+        <v>16</v>
+      </c>
+      <c r="S14" s="48">
+        <v>0</v>
+      </c>
+      <c r="T14" s="48">
+        <f>SUM(T9:T13)</f>
+        <v>16</v>
+      </c>
+      <c r="U14" s="48">
+        <v>0</v>
+      </c>
+      <c r="V14" s="48">
+        <f>SUM(V9:V13)</f>
+        <v>16</v>
+      </c>
+      <c r="W14" s="48">
+        <v>0</v>
+      </c>
+      <c r="X14" s="48">
+        <f>SUM(X9:X13)</f>
+        <v>16</v>
+      </c>
+      <c r="Y14" s="48">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="48">
+        <f>SUM(Z9:Z13)</f>
+        <v>16</v>
+      </c>
+      <c r="AA14" s="48">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="48">
+        <f>SUM(AB9:AB13)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="V15" s="66"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="67"/>
+    </row>
+    <row r="16" spans="3:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="49"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="66"/>
+      <c r="AA16" s="49"/>
+      <c r="AB16" s="66"/>
+    </row>
+    <row r="17" spans="3:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="42">
+        <v>5</v>
+      </c>
+      <c r="E17" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="42">
+        <v>5</v>
+      </c>
+      <c r="G17" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="42">
+        <v>5</v>
+      </c>
+      <c r="I17" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" s="42">
+        <v>5</v>
+      </c>
+      <c r="K17" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="42">
+        <v>5</v>
+      </c>
+      <c r="M17" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" s="42">
+        <v>5</v>
+      </c>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="R17" s="42">
+        <v>5</v>
+      </c>
+      <c r="S17" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="T17" s="42">
+        <v>5</v>
+      </c>
+      <c r="U17" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="V17" s="42">
+        <v>5</v>
+      </c>
+      <c r="W17" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="X17" s="42">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z17" s="42">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB17" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="43">
+        <v>4</v>
+      </c>
+      <c r="E18" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="43">
+        <v>4</v>
+      </c>
+      <c r="G18" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="43">
+        <v>4</v>
+      </c>
+      <c r="I18" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="43">
+        <v>4</v>
+      </c>
+      <c r="K18" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="43">
+        <v>4</v>
+      </c>
+      <c r="M18" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="N18" s="43">
+        <v>4</v>
+      </c>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="R18" s="43">
+        <v>4</v>
+      </c>
+      <c r="S18" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="T18" s="43">
+        <v>4</v>
+      </c>
+      <c r="U18" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="V18" s="43">
+        <v>4</v>
+      </c>
+      <c r="W18" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="X18" s="43">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z18" s="43">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB18" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C19" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="43">
+        <v>3</v>
+      </c>
+      <c r="E19" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="43">
+        <v>3</v>
+      </c>
+      <c r="G19" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="43">
+        <v>3</v>
+      </c>
+      <c r="I19" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="43">
+        <v>3</v>
+      </c>
+      <c r="K19" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19" s="43">
+        <v>3</v>
+      </c>
+      <c r="M19" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="N19" s="43">
+        <v>3</v>
+      </c>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="R19" s="43">
+        <v>3</v>
+      </c>
+      <c r="S19" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="T19" s="43">
+        <v>3</v>
+      </c>
+      <c r="U19" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="V19" s="43">
+        <v>3</v>
+      </c>
+      <c r="W19" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="X19" s="43">
+        <v>3</v>
+      </c>
+      <c r="Y19" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z19" s="43">
+        <v>3</v>
+      </c>
+      <c r="AA19" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB19" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="43">
+        <v>2</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="43">
+        <v>2</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="43">
+        <v>2</v>
+      </c>
+      <c r="I20" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" s="43">
+        <v>2</v>
+      </c>
+      <c r="K20" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="L20" s="43">
+        <v>2</v>
+      </c>
+      <c r="M20" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="N20" s="43">
+        <v>2</v>
+      </c>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="R20" s="43">
+        <v>2</v>
+      </c>
+      <c r="S20" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="T20" s="43">
+        <v>2</v>
+      </c>
+      <c r="U20" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="V20" s="43">
+        <v>2</v>
+      </c>
+      <c r="W20" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="X20" s="43">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z20" s="43">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB20" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="44">
+        <v>1</v>
+      </c>
+      <c r="E21" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="44">
+        <v>1</v>
+      </c>
+      <c r="G21" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="44">
+        <v>1</v>
+      </c>
+      <c r="I21" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="44">
+        <v>1</v>
+      </c>
+      <c r="K21" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="L21" s="44">
+        <v>1</v>
+      </c>
+      <c r="M21" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="N21" s="44">
+        <v>1</v>
+      </c>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="R21" s="44">
+        <v>1</v>
+      </c>
+      <c r="S21" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="T21" s="44">
+        <v>1</v>
+      </c>
+      <c r="U21" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="V21" s="44">
+        <v>1</v>
+      </c>
+      <c r="W21" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="X21" s="44">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z21" s="44">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB21" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="D22" s="36">
+        <f>SUM(D17:D21)</f>
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <f>SUM(F17:F21)</f>
+        <v>15</v>
+      </c>
+      <c r="H22">
+        <f>SUM(H17:H21)</f>
+        <v>15</v>
+      </c>
+      <c r="J22">
+        <f>SUM(J17:J21)</f>
+        <v>15</v>
+      </c>
+      <c r="L22">
+        <f>SUM(L17:L21)</f>
+        <v>15</v>
+      </c>
+      <c r="N22">
+        <f>SUM(N17:N21)</f>
+        <v>15</v>
+      </c>
+      <c r="R22">
+        <f>SUM(R17:R21)</f>
+        <v>15</v>
+      </c>
+      <c r="T22">
+        <f>SUM(T17:T21)</f>
+        <v>15</v>
+      </c>
+      <c r="V22">
+        <f>SUM(V17:V21)</f>
+        <v>15</v>
+      </c>
+      <c r="X22">
+        <f>SUM(X17:X21)</f>
+        <v>15</v>
+      </c>
+      <c r="Z22">
+        <f>SUM(Z17:Z21)</f>
+        <v>15</v>
+      </c>
+      <c r="AB22">
+        <f>SUM(AB17:AB21)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="R23"/>
+      <c r="T23"/>
+      <c r="V23"/>
+      <c r="X23"/>
+      <c r="Z23"/>
+      <c r="AB23" s="36"/>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="R24"/>
+      <c r="T24"/>
+      <c r="V24"/>
+      <c r="X24"/>
+      <c r="Z24"/>
+      <c r="AB24" s="36">
+        <f>SUM(D22:AB22)</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="R25"/>
+      <c r="T25"/>
+      <c r="V25"/>
+      <c r="X25"/>
+      <c r="Z25"/>
+      <c r="AB25" s="36">
+        <f>SUM(D14:AB14)</f>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="R26"/>
+      <c r="T26"/>
+      <c r="V26"/>
+      <c r="X26"/>
+      <c r="Z26"/>
+      <c r="AB26"/>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="N9" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="R9" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="S9" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="T9" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="U9" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="V9" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="W9" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="X9" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y9" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z9" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA9" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB9" s="39" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="C10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="R10" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="S10" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="T10" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="U10" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="V10" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="W10" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="X10" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y10" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z10" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA10" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB10" s="40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="C11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="R11" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="S11" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="T11" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="U11" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="V11" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="W11" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="X11" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y11" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z11" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA11" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB11" s="40" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="C12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="R12" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="S12" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="T12" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="U12" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="V12" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="W12" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="X12" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y12" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z12" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA12" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB12" s="40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="3:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="K13" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="R13" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="S13" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="T13" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="U13" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="V13" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="W13" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="X13" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y13" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z13" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA13" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB13" s="41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="D14" s="38">
-        <f>SUM(D9:D13)</f>
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <f>SUM(F9:F13)</f>
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <f>SUM(H9:H13)</f>
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f>SUM(J9:J13)</f>
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <f>SUM(L9:L13)</f>
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <f>SUM(N9:N13)</f>
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <f>SUM(R9:R13)</f>
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <f>SUM(T9:T13)</f>
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <f>SUM(V9:V13)</f>
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <f>SUM(X9:X13)</f>
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <f>SUM(Z9:Z13)</f>
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <f>SUM(AB9:AB13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="R15"/>
-      <c r="T15"/>
-      <c r="V15"/>
-      <c r="X15"/>
-      <c r="Z15"/>
-      <c r="AB15"/>
-    </row>
-    <row r="16" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="R16"/>
-      <c r="T16"/>
-      <c r="V16"/>
-      <c r="X16"/>
-      <c r="Z16"/>
-      <c r="AB16"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
-        <v>63</v>
-      </c>
-      <c r="R17"/>
-      <c r="T17"/>
-      <c r="V17"/>
-      <c r="X17"/>
-      <c r="Z17"/>
-      <c r="AB17"/>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="C18" t="s">
-        <v>64</v>
-      </c>
-      <c r="R18"/>
-      <c r="T18"/>
-      <c r="V18"/>
-      <c r="X18"/>
-      <c r="Z18"/>
-      <c r="AB18"/>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-      <c r="R19"/>
-      <c r="T19"/>
-      <c r="V19"/>
-      <c r="X19"/>
-      <c r="Z19"/>
-      <c r="AB19"/>
+      <c r="R27"/>
+      <c r="T27"/>
+      <c r="V27"/>
+      <c r="X27"/>
+      <c r="Z27"/>
+      <c r="AB27"/>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C9 C13 C12 C11 C10 E10 G10 I10 K10 M10 O10:Q10 O9:Q9 M9 K9 I9 G9 E9 E11 G11 I11 K11 M11 O11:Q11 AA9 Y9 W9 U9 S9 S10 U10 W10 Y10 AA10 AA11 Y11 W11 U11 S11 S12 U12 W12 Y12 AA12 D12:Q12 AA13 Y13 W13 U13 S13 D13:Q13 D9 R13 T13 V13 X13 Z13 AB13 R12 AB12 Z12 X12 V12 T12 D11 T11 V11 X11 Z11 AB11 D10 AB10 Z10 X10 V10 T10 T9 V9 X9 Z9 AB9 R11 N11 L11 J11 H11 F11 F9 H9 J9 L9 N9 R9 R10 N10 L10 J10 H10 F10" numberStoredAsText="1"/>
+    <ignoredError sqref="C9 C13 C12 C11 C10 E10 G10 I10 K10 M10 O10:Q10 O9:Q9 M9 K9 I9 G9 E9 E11 G11 I11 K11 M11 O11:Q11 AA9 Y9 W9 U9 S9 S10 U10 W10 Y10 AA10 AA11 Y11 W11 U11 S11 S12 U12 W12 Y12 AA12 E12 AA13 Y13 W13 U13 S13 E13 G12 G13 I12 I13 K12 K13 M12 M13 O12:Q12 O13:Q13 O19:P19 O20:P20 O21:P21 O17:P17 O18:P18 C18 C17 C20 C19 G20 C22:N22 C21 E21 I20 K20 M20 I21 K21 M21 AB21 Z21 X21 V21 T21 R21 AB20 Z20 X20 V20 T20 R20 AB19 Z19 X19 V19 T19 R19 AB18 Z18 X18 V18 T18 R18 AB17 Z17 X17 V17 T17 R17 Q22:AB22 Q17 S17 U17 W17 Y17 AA17 Q18 S18 U18 W18 Y18 AA18 Q19 S19 U19 W19 Y19 AA19 Q20 S20 U20 W20 Y20 AA20 Q21 S21 U21 W21 Y21 AA21 E18 E17 E20 E19 G21 G18 G17 G19 I18 I17 I19 K18 K17 K19 M18 M17 M19" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2116,7 +2948,7 @@
   <dimension ref="C9:AB20"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/tc/tc_iot_4/表架拓扑图.xlsx
+++ b/tc/tc_iot_4/表架拓扑图.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="262">
   <si>
     <t>表架1(左侧)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -322,11 +322,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>橙色：电表有事件上报，断电再上电，必然会上报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表架1(左1)</t>
+    <t>表架1(左一)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -334,227 +330,707 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表架3(左三)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表架4（左四）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>026</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>030</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>052</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>059</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粗体：地址开头1809130000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>028</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>036</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>034</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>055</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>054</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>058</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>057</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>060</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>051</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>056</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>046</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>087</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>084</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>035</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>099</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>089</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>097</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>096</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>095</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>094</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>093</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>092</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>019</t>
+    <t>表架3（左三）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表架4(右一)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表架5(右二)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表架6(右三)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180913000033</t>
+  </si>
+  <si>
+    <t>002018091083</t>
+  </si>
+  <si>
+    <t>000003000606</t>
+  </si>
+  <si>
+    <t>180913000049</t>
+  </si>
+  <si>
+    <t>180913000032</t>
+  </si>
+  <si>
+    <t>000003000628</t>
+  </si>
+  <si>
+    <t>180913000052</t>
+  </si>
+  <si>
+    <t>180702002392</t>
+  </si>
+  <si>
+    <t>000173653654</t>
+  </si>
+  <si>
+    <t>180913000050</t>
+  </si>
+  <si>
+    <t>000003000621</t>
+  </si>
+  <si>
+    <t>000003000624</t>
+  </si>
+  <si>
+    <t>100006577782</t>
+  </si>
+  <si>
+    <t>000000032174</t>
+  </si>
+  <si>
+    <t>180913000051</t>
+  </si>
+  <si>
+    <t>002018091081</t>
+  </si>
+  <si>
+    <t>000001667203</t>
+  </si>
+  <si>
+    <t>100006575415</t>
+  </si>
+  <si>
+    <t>000001685027</t>
+  </si>
+  <si>
+    <t>000001703367</t>
+  </si>
+  <si>
+    <t>000001632829</t>
+  </si>
+  <si>
+    <t>000000031791</t>
+  </si>
+  <si>
+    <t>000001612295</t>
+  </si>
+  <si>
+    <t>002018091085</t>
+  </si>
+  <si>
+    <t>000000032191</t>
+  </si>
+  <si>
+    <t>002018091088</t>
+  </si>
+  <si>
+    <t>180913000053</t>
+  </si>
+  <si>
+    <t>180913000055</t>
+  </si>
+  <si>
+    <t>000000032061</t>
+  </si>
+  <si>
+    <t>000173343395</t>
+  </si>
+  <si>
+    <t>180913000030</t>
+  </si>
+  <si>
+    <t>180913000037</t>
+  </si>
+  <si>
+    <t>180913000026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180913000024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180913000036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180913000034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180913000029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180913000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180913000027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180913000009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180913000021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180913000025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180913000039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180913000040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180913000038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180913000028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180913000023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180913000022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180913000035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091052</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091059</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091055</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091054</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091087</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091084</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091092</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091093</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091094</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091095</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091096</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091097</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091089</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091099</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091043</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091044</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091078</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091073</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091079</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091067</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091075</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091074</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091069</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091065</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091068</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091072</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091138</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091071</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091037</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091076</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091077</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091127</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091137</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002018091124</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,7 +1041,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,23 +1086,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -659,7 +1119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -867,6 +1327,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -974,104 +1474,102 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1375,1081 +1873,1486 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:AB28"/>
+  <dimension ref="C2:AD48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="6" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.25" customWidth="1"/>
-    <col min="8" max="14" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.625" customWidth="1"/>
-    <col min="16" max="16" width="9.5" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.625" customWidth="1"/>
-    <col min="22" max="22" width="4.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9" style="50"/>
+    <col min="3" max="3" width="15.75" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.75" style="50" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.375" style="50" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5" style="50" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.75" style="50" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="50" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.75" style="50" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5" style="50" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.75" style="50" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5" style="50" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.625" style="50" customWidth="1"/>
+    <col min="16" max="16" width="9.5" style="50" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="13.875" style="50" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.875" style="50" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.875" style="50" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.875" style="50" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.875" style="50" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.875" style="50" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="4.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="2.875" style="50" customWidth="1"/>
+    <col min="30" max="41" width="4.5" style="50" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="R6"/>
-      <c r="T6"/>
-      <c r="V6"/>
-      <c r="X6"/>
-      <c r="Z6"/>
-      <c r="AB6"/>
-    </row>
-    <row r="7" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="G7" t="s">
+    <row r="2" spans="3:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="51"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+    </row>
+    <row r="3" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C3" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="67">
+        <v>4</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="67">
+        <v>4</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="67">
+        <v>4</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="67">
+        <v>4</v>
+      </c>
+      <c r="K3" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="67">
+        <v>4</v>
+      </c>
+      <c r="M3" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" s="67">
+        <v>4</v>
+      </c>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C4" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="36">
+        <v>5</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="36">
+        <v>5</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="36">
+        <v>5</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" s="36">
+        <v>5</v>
+      </c>
+      <c r="K4" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="36">
+        <v>5</v>
+      </c>
+      <c r="M4" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="N4" s="36">
+        <v>5</v>
+      </c>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C5" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="36">
+        <v>4</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="36">
+        <v>4</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="36">
+        <v>4</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="J5" s="36">
+        <v>4</v>
+      </c>
+      <c r="K5" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="L5" s="36">
+        <v>4</v>
+      </c>
+      <c r="M5" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="N5" s="36">
+        <v>4</v>
+      </c>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C6" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="36">
+        <v>2</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="36">
+        <v>2</v>
+      </c>
+      <c r="G6" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="36">
+        <v>2</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="J6" s="36">
+        <v>2</v>
+      </c>
+      <c r="K6" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="L6" s="36">
+        <v>2</v>
+      </c>
+      <c r="M6" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="N6" s="36">
+        <v>2</v>
+      </c>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+    </row>
+    <row r="7" spans="3:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="37">
+        <v>1</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="37">
+        <v>1</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="37">
+        <v>1</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="J7" s="37">
+        <v>1</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="L7" s="37">
+        <v>1</v>
+      </c>
+      <c r="M7" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="N7" s="37">
+        <v>1</v>
+      </c>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="D8" s="62">
+        <f>SUM(D3:D7)</f>
+        <v>16</v>
+      </c>
+      <c r="F8" s="50">
+        <f>SUM(F3:F7)</f>
+        <v>16</v>
+      </c>
+      <c r="H8" s="50">
+        <f>SUM(H3:H7)</f>
+        <v>16</v>
+      </c>
+      <c r="J8" s="50">
+        <f>SUM(J3:J7)</f>
+        <v>16</v>
+      </c>
+      <c r="L8" s="50">
+        <f>SUM(L3:L7)</f>
+        <v>16</v>
+      </c>
+      <c r="N8" s="50">
+        <f>SUM(N3:N7)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="51"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="U7" t="s">
+      <c r="H10" s="41"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="41"/>
+    </row>
+    <row r="11" spans="3:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="67">
+        <v>4</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="67">
+        <v>4</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" s="67">
+        <v>4</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="J11" s="67">
+        <v>4</v>
+      </c>
+      <c r="K11" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="L11" s="67">
+        <v>4</v>
+      </c>
+      <c r="M11" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="N11" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C12" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="36">
+        <v>5</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="36">
+        <v>5</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" s="36">
+        <v>5</v>
+      </c>
+      <c r="I12" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="J12" s="36">
+        <v>5</v>
+      </c>
+      <c r="K12" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="L12" s="36">
+        <v>5</v>
+      </c>
+      <c r="M12" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="N12" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C13" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="36">
+        <v>4</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="36">
+        <v>4</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="H13" s="36">
+        <v>4</v>
+      </c>
+      <c r="I13" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="J13" s="36">
+        <v>4</v>
+      </c>
+      <c r="K13" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="L13" s="36">
+        <v>4</v>
+      </c>
+      <c r="M13" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="N13" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C14" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="36">
+        <v>2</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="36">
+        <v>2</v>
+      </c>
+      <c r="G14" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="H14" s="36">
+        <v>2</v>
+      </c>
+      <c r="I14" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="J14" s="36">
+        <v>2</v>
+      </c>
+      <c r="K14" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="L14" s="36">
+        <v>2</v>
+      </c>
+      <c r="M14" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="N14" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="37">
+        <v>1</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" s="37">
+        <v>1</v>
+      </c>
+      <c r="G15" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" s="37">
+        <v>1</v>
+      </c>
+      <c r="I15" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="J15" s="37">
+        <v>1</v>
+      </c>
+      <c r="K15" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="L15" s="37">
+        <v>1</v>
+      </c>
+      <c r="M15" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="N15" s="37">
+        <v>1</v>
+      </c>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="D16" s="50">
+        <f>SUM(D11:D15)</f>
+        <v>16</v>
+      </c>
+      <c r="F16" s="50">
+        <f>SUM(F11:F15)</f>
+        <v>16</v>
+      </c>
+      <c r="H16" s="50">
+        <f>SUM(H11:H15)</f>
+        <v>16</v>
+      </c>
+      <c r="J16" s="50">
+        <f>SUM(J11:J15)</f>
+        <v>16</v>
+      </c>
+      <c r="L16" s="50">
+        <f>SUM(L11:L15)</f>
+        <v>16</v>
+      </c>
+      <c r="N16" s="50">
+        <f>SUM(N11:N15)</f>
+        <v>16</v>
+      </c>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+    </row>
+    <row r="18" spans="3:30" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="51"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="51" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="8" spans="3:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="2"/>
-      <c r="AB8" s="2"/>
-    </row>
-    <row r="9" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="C9" s="46" t="s">
+      <c r="H18" s="41"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C19" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="67">
+        <v>4</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19" s="67">
+        <v>4</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="H19" s="67">
+        <v>4</v>
+      </c>
+      <c r="I19" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" s="67">
+        <v>4</v>
+      </c>
+      <c r="K19" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="L19" s="67">
+        <v>4</v>
+      </c>
+      <c r="M19" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="N19" s="67">
+        <v>4</v>
+      </c>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C20" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="36">
+        <v>5</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" s="36">
+        <v>5</v>
+      </c>
+      <c r="G20" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="H20" s="36">
+        <v>5</v>
+      </c>
+      <c r="I20" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="J20" s="36">
+        <v>5</v>
+      </c>
+      <c r="K20" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="L20" s="36">
+        <v>5</v>
+      </c>
+      <c r="M20" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="N20" s="36">
+        <v>5</v>
+      </c>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C21" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="36">
+        <v>4</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="36">
+        <v>4</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="H21" s="36">
+        <v>4</v>
+      </c>
+      <c r="I21" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" s="36">
+        <v>4</v>
+      </c>
+      <c r="K21" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="L21" s="36">
+        <v>4</v>
+      </c>
+      <c r="M21" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="N21" s="36">
+        <v>4</v>
+      </c>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="AD21" s="51"/>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C22" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="D22" s="36">
+        <v>2</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="F22" s="36">
+        <v>2</v>
+      </c>
+      <c r="G22" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="H22" s="36">
+        <v>2</v>
+      </c>
+      <c r="I22" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="J22" s="36">
+        <v>2</v>
+      </c>
+      <c r="K22" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="L22" s="36">
+        <v>2</v>
+      </c>
+      <c r="M22" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="N22" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" s="37">
         <v>1</v>
       </c>
-      <c r="D9" s="37">
-        <v>4</v>
-      </c>
-      <c r="E9" s="53" t="s">
+      <c r="E23" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" s="37">
+        <v>1</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="H23" s="37">
+        <v>1</v>
+      </c>
+      <c r="I23" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="J23" s="37">
+        <v>1</v>
+      </c>
+      <c r="K23" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="L23" s="37">
+        <v>1</v>
+      </c>
+      <c r="M23" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="N23" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="D24" s="66">
+        <f>SUM(D19:D23)</f>
+        <v>16</v>
+      </c>
+      <c r="F24" s="66">
+        <f>SUM(F19:F23)</f>
+        <v>16</v>
+      </c>
+      <c r="H24" s="66">
+        <f>SUM(H19:H23)</f>
+        <v>16</v>
+      </c>
+      <c r="J24" s="66">
+        <f>SUM(J19:J23)</f>
+        <v>16</v>
+      </c>
+      <c r="L24" s="66">
+        <f>SUM(L19:L23)</f>
+        <v>16</v>
+      </c>
+      <c r="N24" s="66">
+        <f>SUM(N19:N23)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="D25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:30" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C27" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" s="53">
+        <v>5</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="F27" s="53">
+        <v>5</v>
+      </c>
+      <c r="G27" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="H27" s="53">
+        <v>5</v>
+      </c>
+      <c r="I27" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="J27" s="53">
+        <v>5</v>
+      </c>
+      <c r="K27" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="L27" s="53">
+        <v>5</v>
+      </c>
+      <c r="M27" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="N27" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C28" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="D28" s="38">
+        <v>4</v>
+      </c>
+      <c r="E28" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="F28" s="38">
+        <v>4</v>
+      </c>
+      <c r="G28" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="H28" s="38">
+        <v>4</v>
+      </c>
+      <c r="I28" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="J28" s="38">
+        <v>4</v>
+      </c>
+      <c r="K28" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="L28" s="38">
+        <v>4</v>
+      </c>
+      <c r="M28" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="N28" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C29" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="D29" s="38">
+        <v>3</v>
+      </c>
+      <c r="E29" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="F29" s="38">
+        <v>3</v>
+      </c>
+      <c r="G29" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="H29" s="38">
+        <v>3</v>
+      </c>
+      <c r="I29" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="J29" s="38">
+        <v>3</v>
+      </c>
+      <c r="K29" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="L29" s="38">
+        <v>3</v>
+      </c>
+      <c r="M29" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="N29" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C30" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="D30" s="38">
         <v>2</v>
       </c>
-      <c r="F9" s="37">
-        <v>4</v>
-      </c>
-      <c r="G9" s="54" t="s">
+      <c r="E30" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="F30" s="38">
+        <v>2</v>
+      </c>
+      <c r="G30" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="H30" s="38">
+        <v>2</v>
+      </c>
+      <c r="I30" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="J30" s="38">
+        <v>2</v>
+      </c>
+      <c r="K30" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="L30" s="38">
+        <v>2</v>
+      </c>
+      <c r="M30" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="N30" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="59" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31" s="39">
+        <v>1</v>
+      </c>
+      <c r="E31" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="F31" s="39">
+        <v>1</v>
+      </c>
+      <c r="G31" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="H31" s="39">
+        <v>1</v>
+      </c>
+      <c r="I31" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="J31" s="39">
+        <v>1</v>
+      </c>
+      <c r="K31" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="L31" s="39">
+        <v>1</v>
+      </c>
+      <c r="M31" s="61" t="s">
+        <v>231</v>
+      </c>
+      <c r="N31" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C32" s="64"/>
+      <c r="D32" s="70">
+        <f>SUM(D27:D31)</f>
+        <v>15</v>
+      </c>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64">
+        <f>SUM(F27:F31)</f>
+        <v>15</v>
+      </c>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64">
+        <f>SUM(H27:H31)</f>
+        <v>15</v>
+      </c>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64">
+        <f>SUM(J27:J31)</f>
+        <v>15</v>
+      </c>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64">
+        <f>SUM(L27:L31)</f>
+        <v>15</v>
+      </c>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64">
+        <f>SUM(N27:N31)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="3:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C35" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35" s="53">
+        <v>5</v>
+      </c>
+      <c r="E35" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="F35" s="53">
+        <v>5</v>
+      </c>
+      <c r="G35" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="H35" s="53">
+        <v>5</v>
+      </c>
+      <c r="I35" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="J35" s="53">
+        <v>5</v>
+      </c>
+      <c r="K35" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="L35" s="53">
+        <v>5</v>
+      </c>
+      <c r="M35" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="N35" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C36" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="D36" s="38">
+        <v>4</v>
+      </c>
+      <c r="E36" s="57" t="s">
+        <v>239</v>
+      </c>
+      <c r="F36" s="38">
+        <v>4</v>
+      </c>
+      <c r="G36" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="H36" s="38">
+        <v>4</v>
+      </c>
+      <c r="I36" s="57" t="s">
+        <v>241</v>
+      </c>
+      <c r="J36" s="38">
+        <v>4</v>
+      </c>
+      <c r="K36" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="L36" s="38">
+        <v>4</v>
+      </c>
+      <c r="M36" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="N36" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C37" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="D37" s="38">
         <v>3</v>
       </c>
-      <c r="H9" s="37">
-        <v>4</v>
-      </c>
-      <c r="I9" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="37">
-        <v>4</v>
-      </c>
-      <c r="K9" s="53" t="s">
+      <c r="E37" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="F37" s="38">
+        <v>3</v>
+      </c>
+      <c r="G37" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="H37" s="38">
+        <v>3</v>
+      </c>
+      <c r="I37" s="57" t="s">
+        <v>247</v>
+      </c>
+      <c r="J37" s="38">
+        <v>3</v>
+      </c>
+      <c r="K37" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="L37" s="38">
+        <v>3</v>
+      </c>
+      <c r="M37" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="N37" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C38" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="D38" s="38">
+        <v>2</v>
+      </c>
+      <c r="E38" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="F38" s="38">
+        <v>2</v>
+      </c>
+      <c r="G38" s="57" t="s">
+        <v>252</v>
+      </c>
+      <c r="H38" s="38">
+        <v>2</v>
+      </c>
+      <c r="I38" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="J38" s="38">
+        <v>2</v>
+      </c>
+      <c r="K38" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="L38" s="38">
+        <v>2</v>
+      </c>
+      <c r="M38" s="69" t="s">
+        <v>255</v>
+      </c>
+      <c r="N38" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="59" t="s">
+        <v>256</v>
+      </c>
+      <c r="D39" s="39">
+        <v>1</v>
+      </c>
+      <c r="E39" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="F39" s="39">
+        <v>1</v>
+      </c>
+      <c r="G39" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="H39" s="39">
+        <v>1</v>
+      </c>
+      <c r="I39" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="J39" s="39">
+        <v>1</v>
+      </c>
+      <c r="K39" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="L39" s="39">
+        <v>1</v>
+      </c>
+      <c r="M39" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="N39" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C40" s="64"/>
+      <c r="D40" s="64">
+        <f>SUM(D35:D39)</f>
+        <v>15</v>
+      </c>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64">
+        <f>SUM(F35:F39)</f>
+        <v>15</v>
+      </c>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64">
+        <f>SUM(H35:H39)</f>
+        <v>15</v>
+      </c>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64">
+        <f>SUM(J35:J39)</f>
+        <v>15</v>
+      </c>
+      <c r="K40" s="64"/>
+      <c r="L40" s="64">
+        <f>SUM(L35:L39)</f>
+        <v>15</v>
+      </c>
+      <c r="M40" s="64"/>
+      <c r="N40" s="64">
+        <f>SUM(N35:N39)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="3:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C43" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="53">
         <v>5</v>
       </c>
-      <c r="L9" s="37">
-        <v>4</v>
-      </c>
-      <c r="M9" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="N9" s="37">
-        <v>4</v>
-      </c>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="R9" s="42">
-        <v>4</v>
-      </c>
-      <c r="S9" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="T9" s="42">
-        <v>4</v>
-      </c>
-      <c r="U9" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="V9" s="42">
-        <v>4</v>
-      </c>
-      <c r="W9" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="X9" s="42">
-        <v>4</v>
-      </c>
-      <c r="Y9" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z9" s="42">
-        <v>4</v>
-      </c>
-      <c r="AA9" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB9" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="C10" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="38">
+      <c r="E43" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="53">
         <v>5</v>
       </c>
-      <c r="E10" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="38">
+      <c r="G43" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="H43" s="53">
         <v>5</v>
       </c>
-      <c r="G10" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="38">
+      <c r="I43" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="J43" s="53">
         <v>5</v>
       </c>
-      <c r="I10" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="38">
+      <c r="K43" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="L43" s="53">
         <v>5</v>
       </c>
-      <c r="K10" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="38">
+      <c r="M43" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="N43" s="53">
         <v>5</v>
       </c>
-      <c r="M10" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="38">
-        <v>5</v>
-      </c>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="R10" s="43">
-        <v>5</v>
-      </c>
-      <c r="S10" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="T10" s="43">
-        <v>5</v>
-      </c>
-      <c r="U10" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="V10" s="43">
-        <v>5</v>
-      </c>
-      <c r="W10" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="X10" s="43">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z10" s="43">
-        <v>5</v>
-      </c>
-      <c r="AA10" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB10" s="43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="C11" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="38">
-        <v>4</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="38">
-        <v>4</v>
-      </c>
-      <c r="G11" s="57" t="s">
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C44" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="38">
+        <v>4</v>
+      </c>
+      <c r="E44" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44" s="38">
+        <v>4</v>
+      </c>
+      <c r="G44" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="H44" s="38">
+        <v>4</v>
+      </c>
+      <c r="I44" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="J44" s="38">
+        <v>4</v>
+      </c>
+      <c r="K44" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="L44" s="38">
+        <v>4</v>
+      </c>
+      <c r="M44" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="N44" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C45" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="38">
+        <v>3</v>
+      </c>
+      <c r="E45" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="F45" s="38">
+        <v>3</v>
+      </c>
+      <c r="G45" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="H45" s="38">
+        <v>3</v>
+      </c>
+      <c r="I45" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="J45" s="38">
+        <v>3</v>
+      </c>
+      <c r="K45" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="L45" s="38">
+        <v>3</v>
+      </c>
+      <c r="M45" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="N45" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C46" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="38">
+        <v>2</v>
+      </c>
+      <c r="E46" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" s="38">
+        <v>2</v>
+      </c>
+      <c r="G46" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="H46" s="38">
+        <v>2</v>
+      </c>
+      <c r="I46" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="J46" s="38">
+        <v>2</v>
+      </c>
+      <c r="K46" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="L46" s="38">
+        <v>2</v>
+      </c>
+      <c r="M46" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="N46" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="39">
+        <v>1</v>
+      </c>
+      <c r="E47" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" s="39">
+        <v>1</v>
+      </c>
+      <c r="G47" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="H47" s="39">
+        <v>1</v>
+      </c>
+      <c r="I47" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="J47" s="39">
+        <v>1</v>
+      </c>
+      <c r="K47" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="L47" s="39">
+        <v>1</v>
+      </c>
+      <c r="M47" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="N47" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C48" s="64"/>
+      <c r="D48" s="64">
+        <f>SUM(D43:D47)</f>
         <v>15</v>
       </c>
-      <c r="H11" s="38">
-        <v>4</v>
-      </c>
-      <c r="I11" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="38">
-        <v>4</v>
-      </c>
-      <c r="K11" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="38">
-        <v>4</v>
-      </c>
-      <c r="M11" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="38">
-        <v>4</v>
-      </c>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="R11" s="43">
-        <v>4</v>
-      </c>
-      <c r="S11" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="T11" s="43">
-        <v>4</v>
-      </c>
-      <c r="U11" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="V11" s="43">
-        <v>4</v>
-      </c>
-      <c r="W11" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="X11" s="43">
-        <v>4</v>
-      </c>
-      <c r="Y11" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z11" s="43">
-        <v>4</v>
-      </c>
-      <c r="AA11" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB11" s="43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="C12" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="38">
-        <v>2</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="38">
-        <v>2</v>
-      </c>
-      <c r="G12" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="38">
-        <v>2</v>
-      </c>
-      <c r="I12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="38">
-        <v>2</v>
-      </c>
-      <c r="K12" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="38">
-        <v>2</v>
-      </c>
-      <c r="M12" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="38">
-        <v>2</v>
-      </c>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="R12" s="43">
-        <v>2</v>
-      </c>
-      <c r="S12" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="T12" s="43">
-        <v>2</v>
-      </c>
-      <c r="U12" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="V12" s="43">
-        <v>2</v>
-      </c>
-      <c r="W12" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="X12" s="43">
-        <v>2</v>
-      </c>
-      <c r="Y12" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z12" s="43">
-        <v>2</v>
-      </c>
-      <c r="AA12" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB12" s="43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="3:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="39">
-        <v>1</v>
-      </c>
-      <c r="E13" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="39">
-        <v>1</v>
-      </c>
-      <c r="G13" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="39">
-        <v>1</v>
-      </c>
-      <c r="I13" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="39">
-        <v>1</v>
-      </c>
-      <c r="K13" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="39">
-        <v>1</v>
-      </c>
-      <c r="M13" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" s="39">
-        <v>1</v>
-      </c>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="R13" s="44">
-        <v>1</v>
-      </c>
-      <c r="S13" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="T13" s="44">
-        <v>1</v>
-      </c>
-      <c r="U13" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="V13" s="44">
-        <v>1</v>
-      </c>
-      <c r="W13" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="X13" s="44">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z13" s="44">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB13" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="C14" s="48">
-        <v>0</v>
-      </c>
-      <c r="D14" s="45">
-        <f>SUM(D9:D13)</f>
-        <v>16</v>
-      </c>
-      <c r="E14" s="48">
-        <v>0</v>
-      </c>
-      <c r="F14" s="48">
-        <f>SUM(F9:F13)</f>
-        <v>16</v>
-      </c>
-      <c r="G14" s="48">
-        <v>0</v>
-      </c>
-      <c r="H14" s="48">
-        <f>SUM(H9:H13)</f>
-        <v>16</v>
-      </c>
-      <c r="I14" s="48">
-        <v>0</v>
-      </c>
-      <c r="J14" s="48">
-        <f>SUM(J9:J13)</f>
-        <v>16</v>
-      </c>
-      <c r="K14" s="48">
-        <v>0</v>
-      </c>
-      <c r="L14" s="48">
-        <f>SUM(L9:L13)</f>
-        <v>16</v>
-      </c>
-      <c r="M14" s="48">
-        <v>0</v>
-      </c>
-      <c r="N14" s="48">
-        <f>SUM(N9:N13)</f>
-        <v>16</v>
-      </c>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48">
-        <v>0</v>
-      </c>
-      <c r="R14" s="48">
-        <f>SUM(R9:R13)</f>
-        <v>16</v>
-      </c>
-      <c r="S14" s="48">
-        <v>0</v>
-      </c>
-      <c r="T14" s="48">
-        <f>SUM(T9:T13)</f>
-        <v>16</v>
-      </c>
-      <c r="U14" s="48">
-        <v>0</v>
-      </c>
-      <c r="V14" s="48">
-        <f>SUM(V9:V13)</f>
-        <v>16</v>
-      </c>
-      <c r="W14" s="48">
-        <v>0</v>
-      </c>
-      <c r="X14" s="48">
-        <f>SUM(X9:X13)</f>
-        <v>16</v>
-      </c>
-      <c r="Y14" s="48">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="48">
-        <f>SUM(Z9:Z13)</f>
-        <v>16</v>
-      </c>
-      <c r="AA14" s="48">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="48">
-        <f>SUM(AB9:AB13)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="V15" s="66"/>
-      <c r="W15" s="49"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="49"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="49"/>
-      <c r="AB15" s="67"/>
-    </row>
-    <row r="16" spans="3:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="49"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="49"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="66"/>
-      <c r="AA16" s="49"/>
-      <c r="AB16" s="66"/>
-    </row>
-    <row r="17" spans="3:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="42">
-        <v>5</v>
-      </c>
-      <c r="E17" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="42">
-        <v>5</v>
-      </c>
-      <c r="G17" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="42">
-        <v>5</v>
-      </c>
-      <c r="I17" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="J17" s="42">
-        <v>5</v>
-      </c>
-      <c r="K17" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="L17" s="42">
-        <v>5</v>
-      </c>
-      <c r="M17" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="N17" s="42">
-        <v>5</v>
-      </c>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="R17" s="42">
-        <v>5</v>
-      </c>
-      <c r="S17" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="T17" s="42">
-        <v>5</v>
-      </c>
-      <c r="U17" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="V17" s="42">
-        <v>5</v>
-      </c>
-      <c r="W17" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="X17" s="42">
-        <v>5</v>
-      </c>
-      <c r="Y17" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z17" s="42">
-        <v>5</v>
-      </c>
-      <c r="AA17" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB17" s="42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="43">
-        <v>4</v>
-      </c>
-      <c r="E18" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="43">
-        <v>4</v>
-      </c>
-      <c r="G18" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="43">
-        <v>4</v>
-      </c>
-      <c r="I18" s="71" t="s">
-        <v>89</v>
-      </c>
-      <c r="J18" s="43">
-        <v>4</v>
-      </c>
-      <c r="K18" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="L18" s="43">
-        <v>4</v>
-      </c>
-      <c r="M18" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="N18" s="43">
-        <v>4</v>
-      </c>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="59" t="s">
-        <v>129</v>
-      </c>
-      <c r="R18" s="43">
-        <v>4</v>
-      </c>
-      <c r="S18" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="T18" s="43">
-        <v>4</v>
-      </c>
-      <c r="U18" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="V18" s="43">
-        <v>4</v>
-      </c>
-      <c r="W18" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="X18" s="43">
-        <v>4</v>
-      </c>
-      <c r="Y18" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z18" s="43">
-        <v>4</v>
-      </c>
-      <c r="AA18" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB18" s="43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="C19" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="43">
-        <v>3</v>
-      </c>
-      <c r="E19" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="43">
-        <v>3</v>
-      </c>
-      <c r="G19" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="43">
-        <v>3</v>
-      </c>
-      <c r="I19" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="J19" s="43">
-        <v>3</v>
-      </c>
-      <c r="K19" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="L19" s="43">
-        <v>3</v>
-      </c>
-      <c r="M19" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="N19" s="43">
-        <v>3</v>
-      </c>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="R19" s="43">
-        <v>3</v>
-      </c>
-      <c r="S19" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="T19" s="43">
-        <v>3</v>
-      </c>
-      <c r="U19" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="V19" s="43">
-        <v>3</v>
-      </c>
-      <c r="W19" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="X19" s="43">
-        <v>3</v>
-      </c>
-      <c r="Y19" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z19" s="43">
-        <v>3</v>
-      </c>
-      <c r="AA19" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB19" s="43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="3:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="43">
-        <v>2</v>
-      </c>
-      <c r="E20" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="43">
-        <v>2</v>
-      </c>
-      <c r="G20" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="H20" s="43">
-        <v>2</v>
-      </c>
-      <c r="I20" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="J20" s="43">
-        <v>2</v>
-      </c>
-      <c r="K20" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="L20" s="43">
-        <v>2</v>
-      </c>
-      <c r="M20" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="N20" s="43">
-        <v>2</v>
-      </c>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="R20" s="43">
-        <v>2</v>
-      </c>
-      <c r="S20" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="T20" s="43">
-        <v>2</v>
-      </c>
-      <c r="U20" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="V20" s="43">
-        <v>2</v>
-      </c>
-      <c r="W20" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="X20" s="43">
-        <v>2</v>
-      </c>
-      <c r="Y20" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z20" s="43">
-        <v>2</v>
-      </c>
-      <c r="AA20" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB20" s="43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="44">
-        <v>1</v>
-      </c>
-      <c r="E21" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="44">
-        <v>1</v>
-      </c>
-      <c r="G21" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="H21" s="44">
-        <v>1</v>
-      </c>
-      <c r="I21" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="J21" s="44">
-        <v>1</v>
-      </c>
-      <c r="K21" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="L21" s="44">
-        <v>1</v>
-      </c>
-      <c r="M21" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="N21" s="44">
-        <v>1</v>
-      </c>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="R21" s="44">
-        <v>1</v>
-      </c>
-      <c r="S21" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="T21" s="44">
-        <v>1</v>
-      </c>
-      <c r="U21" s="62" t="s">
-        <v>112</v>
-      </c>
-      <c r="V21" s="44">
-        <v>1</v>
-      </c>
-      <c r="W21" s="62" t="s">
-        <v>111</v>
-      </c>
-      <c r="X21" s="44">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z21" s="44">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB21" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="D22" s="36">
-        <f>SUM(D17:D21)</f>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64">
+        <f>SUM(F43:F47)</f>
         <v>15</v>
       </c>
-      <c r="F22">
-        <f>SUM(F17:F21)</f>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64">
+        <f>SUM(H43:H47)</f>
         <v>15</v>
       </c>
-      <c r="H22">
-        <f>SUM(H17:H21)</f>
+      <c r="I48" s="64"/>
+      <c r="J48" s="64">
+        <f>SUM(J43:J47)</f>
         <v>15</v>
       </c>
-      <c r="J22">
-        <f>SUM(J17:J21)</f>
+      <c r="K48" s="64"/>
+      <c r="L48" s="64">
+        <f>SUM(L43:L47)</f>
         <v>15</v>
       </c>
-      <c r="L22">
-        <f>SUM(L17:L21)</f>
+      <c r="M48" s="64"/>
+      <c r="N48" s="64">
+        <f>SUM(N43:N47)</f>
         <v>15</v>
-      </c>
-      <c r="N22">
-        <f>SUM(N17:N21)</f>
-        <v>15</v>
-      </c>
-      <c r="R22">
-        <f>SUM(R17:R21)</f>
-        <v>15</v>
-      </c>
-      <c r="T22">
-        <f>SUM(T17:T21)</f>
-        <v>15</v>
-      </c>
-      <c r="V22">
-        <f>SUM(V17:V21)</f>
-        <v>15</v>
-      </c>
-      <c r="X22">
-        <f>SUM(X17:X21)</f>
-        <v>15</v>
-      </c>
-      <c r="Z22">
-        <f>SUM(Z17:Z21)</f>
-        <v>15</v>
-      </c>
-      <c r="AB22">
-        <f>SUM(AB17:AB21)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="R23"/>
-      <c r="T23"/>
-      <c r="V23"/>
-      <c r="X23"/>
-      <c r="Z23"/>
-      <c r="AB23" s="36"/>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="C24" t="s">
-        <v>62</v>
-      </c>
-      <c r="R24"/>
-      <c r="T24"/>
-      <c r="V24"/>
-      <c r="X24"/>
-      <c r="Z24"/>
-      <c r="AB24" s="36">
-        <f>SUM(D22:AB22)</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="C25" t="s">
-        <v>63</v>
-      </c>
-      <c r="R25"/>
-      <c r="T25"/>
-      <c r="V25"/>
-      <c r="X25"/>
-      <c r="Z25"/>
-      <c r="AB25" s="36">
-        <f>SUM(D14:AB14)</f>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
-      <c r="R26"/>
-      <c r="T26"/>
-      <c r="V26"/>
-      <c r="X26"/>
-      <c r="Z26"/>
-      <c r="AB26"/>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="C27" t="s">
-        <v>76</v>
-      </c>
-      <c r="R27"/>
-      <c r="T27"/>
-      <c r="V27"/>
-      <c r="X27"/>
-      <c r="Z27"/>
-      <c r="AB27"/>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="C28" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2457,7 +3360,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C9 C13 C12 C11 C10 E10 G10 I10 K10 M10 O10:Q10 O9:Q9 M9 K9 I9 G9 E9 E11 G11 I11 K11 M11 O11:Q11 AA9 Y9 W9 U9 S9 S10 U10 W10 Y10 AA10 AA11 Y11 W11 U11 S11 S12 U12 W12 Y12 AA12 E12 AA13 Y13 W13 U13 S13 E13 G12 G13 I12 I13 K12 K13 M12 M13 O12:Q12 O13:Q13 O19:P19 O20:P20 O21:P21 O17:P17 O18:P18 C18 C17 C20 C19 G20 C22:N22 C21 E21 I20 K20 M20 I21 K21 M21 AB21 Z21 X21 V21 T21 R21 AB20 Z20 X20 V20 T20 R20 AB19 Z19 X19 V19 T19 R19 AB18 Z18 X18 V18 T18 R18 AB17 Z17 X17 V17 T17 R17 Q22:AB22 Q17 S17 U17 W17 Y17 AA17 Q18 S18 U18 W18 Y18 AA18 Q19 S19 U19 W19 Y19 AA19 Q20 S20 U20 W20 Y20 AA20 Q21 S21 U21 W21 Y21 AA21 E18 E17 E20 E19 G21 G18 G17 G19 I18 I17 I19 K18 K17 K19 M18 M17 M19" numberStoredAsText="1"/>
+    <ignoredError sqref="O15:P15 O14:P14 O16:P16 O17:P19 O9:P9 O3:P8 C17:N17 O10:P13 AD10:AN13 C8:N9 AD9:AN9" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
